--- a/data/13_Jan_Working_Ontology Table for NLP-Knowledge graphs-Visualisation.xlsx
+++ b/data/13_Jan_Working_Ontology Table for NLP-Knowledge graphs-Visualisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apister/Documents/Projects/gitlab/epiVis/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2996A1-48A9-434B-B358-DE14412386EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC5C79B-296B-0142-B13A-1C5C9F633C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="740" windowWidth="27940" windowHeight="18380" activeTab="2" xr2:uid="{04EC009A-4836-7F43-9038-5A1FCA6BF5A3}"/>
+    <workbookView xWindow="1460" yWindow="740" windowWidth="27940" windowHeight="18380" activeTab="6" xr2:uid="{04EC009A-4836-7F43-9038-5A1FCA6BF5A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ontology used" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9570" uniqueCount="2570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9570" uniqueCount="2571">
   <si>
     <t xml:space="preserve">Author: Chrysa Lamprinopoulou, EPIC, GAAFS, University of Edinburgh </t>
   </si>
@@ -11255,6 +11255,9 @@
   </si>
   <si>
     <t>Epic Code Old</t>
+  </si>
+  <si>
+    <t>University of London</t>
   </si>
 </sst>
 </file>
@@ -11888,6 +11891,26 @@
   <dxfs count="57">
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -11908,41 +11931,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11983,6 +11976,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12115,6 +12118,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -12131,13 +12141,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12196,26 +12199,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
@@ -12263,9 +12246,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12276,6 +12262,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12297,9 +12290,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12310,16 +12323,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12354,6 +12357,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -12366,7 +12376,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12388,9 +12398,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12401,16 +12414,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -40746,8 +40749,8 @@
   <dimension ref="A1:DD56"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -48511,8 +48514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83550EBE-5AF5-E346-ABE7-C007E600AF03}">
   <dimension ref="A1:CI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -53645,11 +53648,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF3:BO20">
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="73" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="72" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3">
@@ -53658,19 +53661,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3:BJ20">
-    <cfRule type="cellIs" dxfId="53" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="equal">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ3:BK20">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
-      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK3:BK20">
@@ -53685,22 +53688,22 @@
     <cfRule type="cellIs" dxfId="47" priority="64" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="66" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="66" operator="equal">
-      <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="44" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP3:BP20">
-    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="70" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="69" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ3:BQ20">
@@ -53712,30 +53715,30 @@
     <cfRule type="cellIs" dxfId="40" priority="57" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="59" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="59" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS3:BS20">
-    <cfRule type="cellIs" dxfId="37" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="55" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT3:BT20">
-    <cfRule type="cellIs" dxfId="35" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="52" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="53" operator="equal">
       <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU3:BU20">
@@ -53761,14 +53764,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW3:BX20">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY3:BY20">
@@ -53834,43 +53837,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF3:CF25">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",CF3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",CF3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG3:CG26">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH3:CH20">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
-      <formula>7</formula>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>7</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH3:CH24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>7</formula>
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -63337,9 +63340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EE7CCA-8419-1C46-9D55-A3ED1B6DF076}">
   <dimension ref="A1:BI131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -64526,7 +64529,7 @@
         <v>1415</v>
       </c>
       <c r="F59" t="s">
-        <v>1423</v>
+        <v>2570</v>
       </c>
       <c r="G59" t="s">
         <v>2359</v>
